--- a/data/trans_orig/IFINALC_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IFINALC_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FBD8840-7F72-4B42-B52C-87E08AC32563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A7097C8-44FD-4CF0-8C7D-9C7E047E47D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{75D16AAD-8CAB-48AA-92E2-BF53F93941E5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5B50D3E2-25C2-46EF-92AC-360D1F83F2A4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="140">
   <si>
     <t>Adulto entrevistado según su comprensión general del cuestionario en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -83,13 +83,13 @@
     <t>0,96%</t>
   </si>
   <si>
-    <t>3,97%</t>
+    <t>4,09%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>2,37%</t>
+    <t>2,64%</t>
   </si>
   <si>
     <t>Buena</t>
@@ -98,28 +98,28 @@
     <t>8,84%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
   </si>
   <si>
     <t>11,89%</t>
   </si>
   <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
   </si>
   <si>
     <t>10,35%</t>
   </si>
   <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
   </si>
   <si>
     <t>Excelente</t>
@@ -128,28 +128,28 @@
     <t>91,16%</t>
   </si>
   <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
   </si>
   <si>
     <t>87,15%</t>
   </si>
   <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
   </si>
   <si>
     <t>89,18%</t>
   </si>
   <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,7 +164,7 @@
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,51%</t>
+    <t>0,55%</t>
   </si>
   <si>
     <t>0,05%</t>
@@ -176,16 +176,16 @@
     <t>14,31%</t>
   </si>
   <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
   </si>
   <si>
     <t>17,69%</t>
   </si>
   <si>
-    <t>13,47%</t>
+    <t>13,28%</t>
   </si>
   <si>
     <t>22,67%</t>
@@ -194,37 +194,37 @@
     <t>15,92%</t>
   </si>
   <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
   </si>
   <si>
     <t>85,69%</t>
   </si>
   <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
   </si>
   <si>
     <t>82,21%</t>
   </si>
   <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
   </si>
   <si>
     <t>84,03%</t>
   </si>
   <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -233,7 +233,7 @@
     <t>0,26%</t>
   </si>
   <si>
-    <t>1,43%</t>
+    <t>1,33%</t>
   </si>
   <si>
     <t>0,82%</t>
@@ -242,61 +242,61 @@
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,8%</t>
+    <t>0,72%</t>
   </si>
   <si>
     <t>16,4%</t>
   </si>
   <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
   </si>
   <si>
     <t>14,11%</t>
   </si>
   <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
   </si>
   <si>
     <t>15,33%</t>
   </si>
   <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
   </si>
   <si>
     <t>83,34%</t>
   </si>
   <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
   </si>
   <si>
     <t>85,89%</t>
   </si>
   <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
   </si>
   <si>
     <t>84,52%</t>
   </si>
   <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -305,7 +305,7 @@
     <t>0,73%</t>
   </si>
   <si>
-    <t>3,29%</t>
+    <t>3,27%</t>
   </si>
   <si>
     <t>0,97%</t>
@@ -314,142 +314,145 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>2,99%</t>
+    <t>2,98%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
   </si>
   <si>
     <t>14,34%</t>
   </si>
   <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
   </si>
   <si>
     <t>12,9%</t>
   </si>
   <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
   </si>
   <si>
     <t>13,66%</t>
   </si>
   <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
   </si>
   <si>
     <t>84,93%</t>
   </si>
   <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
   </si>
   <si>
     <t>86,13%</t>
   </si>
   <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
   </si>
   <si>
     <t>85,5%</t>
   </si>
   <si>
-    <t>88,09%</t>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
+    <t>0,99%</t>
   </si>
   <si>
     <t>14,46%</t>
   </si>
   <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
   </si>
   <si>
     <t>14,39%</t>
   </si>
   <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
   </si>
   <si>
     <t>85,17%</t>
   </si>
   <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
   </si>
   <si>
     <t>85,2%</t>
   </si>
   <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
   </si>
   <si>
     <t>85,18%</t>
   </si>
   <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -864,7 +867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A15F88B-3FE0-4217-990E-FF6238F1C09F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2A1FDE-613B-4560-99BD-0F5A526C71C1}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1741,10 +1744,10 @@
         <v>111</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1812,13 +1815,13 @@
         <v>2647</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -1827,13 +1830,13 @@
         <v>3215</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -1842,10 +1845,10 @@
         <v>5862</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>121</v>
@@ -1869,7 +1872,7 @@
         <v>123</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="H21" s="7">
         <v>146</v>
@@ -1881,10 +1884,10 @@
         <v>45</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M21" s="7">
         <v>292</v>
@@ -1893,13 +1896,13 @@
         <v>198214</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1914,13 +1917,13 @@
         <v>618087</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H22" s="7">
         <v>790</v>
@@ -1929,13 +1932,13 @@
         <v>555224</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M22" s="7">
         <v>1618</v>
@@ -1944,13 +1947,13 @@
         <v>1173312</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2006,7 +2009,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IFINALC_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IFINALC_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A7097C8-44FD-4CF0-8C7D-9C7E047E47D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD5403D9-CB50-41FF-8649-F5EAF097EAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5B50D3E2-25C2-46EF-92AC-360D1F83F2A4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F17AB442-55AA-454F-A0DF-70C52D69AE24}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="138">
   <si>
     <t>Adulto entrevistado según su comprensión general del cuestionario en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,85 +71,85 @@
     <t>Regular</t>
   </si>
   <si>
+    <t>0,95%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>4,39%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
   </si>
   <si>
     <t>Buena</t>
   </si>
   <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
   </si>
   <si>
     <t>Excelente</t>
   </si>
   <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
   </si>
   <si>
     <t>100%</t>
@@ -158,301 +158,295 @@
     <t>3-7</t>
   </si>
   <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
   </si>
   <si>
     <t>14,11%</t>
   </si>
   <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
   </si>
   <si>
     <t>83,34%</t>
   </si>
   <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
   </si>
   <si>
     <t>0,06%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
+    <t>1,49%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -867,7 +861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2A1FDE-613B-4560-99BD-0F5A526C71C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA76EFA-E73B-4E52-A7E9-DEAC2AB6D2F5}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -985,10 +979,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>547</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1000,16 +994,16 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -1018,13 +1012,13 @@
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>17</v>
@@ -1036,10 +1030,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>5170</v>
+        <v>6719</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1051,10 +1045,10 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>6822</v>
+        <v>5293</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
@@ -1069,7 +1063,7 @@
         <v>25</v>
       </c>
       <c r="N5" s="7">
-        <v>11993</v>
+        <v>12013</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>25</v>
@@ -1087,10 +1081,10 @@
         <v>28</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D6" s="7">
-        <v>53333</v>
+        <v>50245</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>29</v>
@@ -1102,10 +1096,10 @@
         <v>31</v>
       </c>
       <c r="H6" s="7">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="I6" s="7">
-        <v>49997</v>
+        <v>56151</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>32</v>
@@ -1120,7 +1114,7 @@
         <v>199</v>
       </c>
       <c r="N6" s="7">
-        <v>103328</v>
+        <v>106395</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>35</v>
@@ -1138,25 +1132,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>109</v>
+      </c>
+      <c r="D7" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="7">
         <v>116</v>
       </c>
-      <c r="D7" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="7">
-        <v>109</v>
-      </c>
       <c r="I7" s="7">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>38</v>
@@ -1171,7 +1165,7 @@
         <v>225</v>
       </c>
       <c r="N7" s="7">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1191,31 +1185,31 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>42</v>
@@ -1224,13 +1218,13 @@
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>44</v>
@@ -1242,10 +1236,10 @@
         <v>18</v>
       </c>
       <c r="C9" s="7">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D9" s="7">
-        <v>25090</v>
+        <v>27560</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>45</v>
@@ -1257,10 +1251,10 @@
         <v>47</v>
       </c>
       <c r="H9" s="7">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I9" s="7">
-        <v>28092</v>
+        <v>26341</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>48</v>
@@ -1275,7 +1269,7 @@
         <v>90</v>
       </c>
       <c r="N9" s="7">
-        <v>53182</v>
+        <v>53901</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>51</v>
@@ -1293,10 +1287,10 @@
         <v>28</v>
       </c>
       <c r="C10" s="7">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="D10" s="7">
-        <v>150209</v>
+        <v>131575</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>54</v>
@@ -1308,10 +1302,10 @@
         <v>56</v>
       </c>
       <c r="H10" s="7">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="I10" s="7">
-        <v>130514</v>
+        <v>156213</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>57</v>
@@ -1326,7 +1320,7 @@
         <v>443</v>
       </c>
       <c r="N10" s="7">
-        <v>280722</v>
+        <v>287788</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>60</v>
@@ -1344,25 +1338,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>258</v>
+      </c>
+      <c r="D11" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="7">
         <v>276</v>
       </c>
-      <c r="D11" s="7">
-        <v>175299</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="7">
-        <v>258</v>
-      </c>
       <c r="I11" s="7">
-        <v>158765</v>
+        <v>182554</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>38</v>
@@ -1377,7 +1371,7 @@
         <v>534</v>
       </c>
       <c r="N11" s="7">
-        <v>334063</v>
+        <v>341853</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>38</v>
@@ -1397,28 +1391,28 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="7">
         <v>1</v>
       </c>
-      <c r="D12" s="7">
-        <v>534</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="I12" s="7">
+        <v>565</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>12</v>
@@ -1430,13 +1424,13 @@
         <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>534</v>
+        <v>565</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>67</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>68</v>
@@ -1448,10 +1442,10 @@
         <v>18</v>
       </c>
       <c r="C13" s="7">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D13" s="7">
-        <v>33199</v>
+        <v>25306</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1463,10 +1457,10 @@
         <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I13" s="7">
-        <v>24855</v>
+        <v>36390</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1481,7 +1475,7 @@
         <v>75</v>
       </c>
       <c r="N13" s="7">
-        <v>58054</v>
+        <v>61697</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -1499,10 +1493,10 @@
         <v>28</v>
       </c>
       <c r="C14" s="7">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D14" s="7">
-        <v>168745</v>
+        <v>147766</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1514,10 +1508,10 @@
         <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I14" s="7">
-        <v>151258</v>
+        <v>175535</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -1532,7 +1526,7 @@
         <v>400</v>
       </c>
       <c r="N14" s="7">
-        <v>320003</v>
+        <v>323301</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -1550,25 +1544,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>233</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="7">
         <v>243</v>
       </c>
-      <c r="D15" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="7">
-        <v>233</v>
-      </c>
       <c r="I15" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>38</v>
@@ -1583,7 +1577,7 @@
         <v>476</v>
       </c>
       <c r="N15" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>38</v>
@@ -1603,31 +1597,31 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>2113</v>
+        <v>2521</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>2506</v>
+        <v>2313</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>92</v>
@@ -1636,16 +1630,16 @@
         <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>4619</v>
+        <v>4834</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1654,49 +1648,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>50</v>
+      </c>
+      <c r="D17" s="7">
+        <v>32736</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
         <v>52</v>
       </c>
-      <c r="D17" s="7">
-        <v>41510</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>43105</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="7">
-        <v>50</v>
-      </c>
-      <c r="I17" s="7">
-        <v>33476</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>102</v>
       </c>
       <c r="N17" s="7">
-        <v>74986</v>
+        <v>75841</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1708,46 +1702,46 @@
         <v>288</v>
       </c>
       <c r="D18" s="7">
-        <v>245800</v>
+        <v>239010</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H18" s="7">
         <v>288</v>
       </c>
       <c r="I18" s="7">
-        <v>223456</v>
+        <v>260065</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M18" s="7">
         <v>576</v>
       </c>
       <c r="N18" s="7">
-        <v>469257</v>
+        <v>499075</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1756,25 +1750,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>341</v>
+      </c>
+      <c r="D19" s="7">
+        <v>274267</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="7">
         <v>342</v>
       </c>
-      <c r="D19" s="7">
-        <v>289424</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="7">
-        <v>341</v>
-      </c>
       <c r="I19" s="7">
-        <v>259438</v>
+        <v>305483</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>38</v>
@@ -1789,7 +1783,7 @@
         <v>683</v>
       </c>
       <c r="N19" s="7">
-        <v>548862</v>
+        <v>579750</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>38</v>
@@ -1809,49 +1803,49 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>5</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3232</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" s="7">
         <v>3</v>
       </c>
-      <c r="D20" s="7">
-        <v>2647</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="I20" s="7">
+        <v>2878</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3215</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
       </c>
       <c r="N20" s="7">
-        <v>5862</v>
+        <v>6110</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1863,46 +1857,46 @@
         <v>146</v>
       </c>
       <c r="D21" s="7">
-        <v>104970</v>
+        <v>92322</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H21" s="7">
         <v>146</v>
       </c>
       <c r="I21" s="7">
-        <v>93245</v>
+        <v>111130</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M21" s="7">
         <v>292</v>
       </c>
       <c r="N21" s="7">
-        <v>198214</v>
+        <v>203452</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1911,49 +1905,49 @@
         <v>28</v>
       </c>
       <c r="C22" s="7">
+        <v>790</v>
+      </c>
+      <c r="D22" s="7">
+        <v>568596</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="7">
         <v>828</v>
       </c>
-      <c r="D22" s="7">
-        <v>618087</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="I22" s="7">
+        <v>647965</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="H22" s="7">
-        <v>790</v>
-      </c>
-      <c r="I22" s="7">
-        <v>555224</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M22" s="7">
         <v>1618</v>
       </c>
       <c r="N22" s="7">
-        <v>1173312</v>
+        <v>1216561</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1962,25 +1956,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>941</v>
+      </c>
+      <c r="D23" s="7">
+        <v>664150</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="7">
         <v>977</v>
       </c>
-      <c r="D23" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="7">
-        <v>941</v>
-      </c>
       <c r="I23" s="7">
-        <v>651684</v>
+        <v>761972</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>38</v>
@@ -1995,7 +1989,7 @@
         <v>1918</v>
       </c>
       <c r="N23" s="7">
-        <v>1377388</v>
+        <v>1426122</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>38</v>
@@ -2009,7 +2003,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
